--- a/report_template/dailyReport.xlsx
+++ b/report_template/dailyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\Datalogger2\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\Datalogger2\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBB69D3-006E-46D3-AA7C-E376808FB830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82515D-5C4F-4DBD-8D4F-95F8A35B872D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="945" windowWidth="20520" windowHeight="13365" xr2:uid="{1FF98DE7-DF0E-49E7-AD88-0362929A6F74}"/>
+    <workbookView xWindow="12675" yWindow="6300" windowWidth="23580" windowHeight="17010" xr2:uid="{1FF98DE7-DF0E-49E7-AD88-0362929A6F74}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -187,28 +187,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,25 +529,25 @@
   <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -557,153 +557,153 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>0.375</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <v>0.625</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="2">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="2">
         <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="2">
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="2">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="2">
         <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="2">
         <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="2">
         <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/report_template/dailyReport.xlsx
+++ b/report_template/dailyReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\webApp\Datalogger2\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\Datalogger2\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D82515D-5C4F-4DBD-8D4F-95F8A35B872D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE10F3-9D3C-43F9-9C00-F806EDDC185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="6300" windowWidth="23580" windowHeight="17010" xr2:uid="{1FF98DE7-DF0E-49E7-AD88-0362929A6F74}"/>
+    <workbookView xWindow="2400" yWindow="1005" windowWidth="25590" windowHeight="13365" xr2:uid="{1FF98DE7-DF0E-49E7-AD88-0362929A6F74}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -187,28 +187,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,25 +529,25 @@
   <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -557,153 +557,153 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>0.375</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>0.625</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/report_template/dailyReport.xlsx
+++ b/report_template/dailyReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\Datalogger2\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\Datalogger2\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE10F3-9D3C-43F9-9C00-F806EDDC185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BEAEAD-A465-4F8E-88A5-C32123CC573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1005" windowWidth="25590" windowHeight="13365" xr2:uid="{1FF98DE7-DF0E-49E7-AD88-0362929A6F74}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{1FF98DE7-DF0E-49E7-AD88-0362929A6F74}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,57 +34,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>底色說明</t>
-  </si>
-  <si>
-    <t>校正</t>
-  </si>
-  <si>
-    <t>維修</t>
-  </si>
-  <si>
-    <t>異常</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工註記</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小時值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均值</t>
-  </si>
-  <si>
-    <t>最大值</t>
-  </si>
-  <si>
-    <t>最小值</t>
-  </si>
-  <si>
-    <t>有效率(%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Calibration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abnormal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -107,30 +98,27 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -146,7 +134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,11 +163,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -187,34 +172,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="壞" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -376,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,187 +510,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BEFEB7-514D-4118-8687-1DEFEE9BACBE}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.125</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.625</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.875</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
